--- a/ZongCe2018/班级学生列表（模板）.xlsx
+++ b/ZongCe2018/班级学生列表（模板）.xlsx
@@ -143,19 +143,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,19 +473,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -490,7 +498,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -501,69 +509,70 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1503</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>1503</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1503</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>1503</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mliMhUJhigOA6TT9YwGKAIiK1LgecWe+/qd0TubjFLF0QSFi5woeAns+G8ETHrnM0suTlNTfWVblabtmK9TolQ==" saltValue="TsxGO2RCTmM+2JK/yyg2JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A9:D9"/>
   </mergeCells>
